--- a/Quality/Quality/XLT/Measurement.xlsx
+++ b/Quality/Quality/XLT/Measurement.xlsx
@@ -397,10 +397,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -414,14 +415,32 @@
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
